--- a/data/trans_orig/P76_M_2012-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P76_M_2012-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{76312123-ED72-47AB-97E7-D110FDA4D0EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3EC21FCE-7C7F-471F-A6BD-478111E2203B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C0028D68-6E32-47D9-8333-DFB5E767E62D}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{93A89E2D-C3E9-4E65-A59C-09F1467CCA76}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="364">
   <si>
     <t>Población según era la situación laboral de su madre cuando tenía 12 años en 2012 (Tasa respuesta: 94,96%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>52,17%</t>
   </si>
   <si>
-    <t>41,98%</t>
-  </si>
-  <si>
-    <t>60,92%</t>
+    <t>41,4%</t>
+  </si>
+  <si>
+    <t>61,0%</t>
   </si>
   <si>
     <t>45,92%</t>
   </si>
   <si>
-    <t>36,05%</t>
-  </si>
-  <si>
-    <t>56,49%</t>
+    <t>36,06%</t>
+  </si>
+  <si>
+    <t>56,23%</t>
   </si>
   <si>
     <t>49,06%</t>
   </si>
   <si>
-    <t>41,5%</t>
-  </si>
-  <si>
-    <t>55,47%</t>
+    <t>41,91%</t>
+  </si>
+  <si>
+    <t>55,77%</t>
   </si>
   <si>
     <t>Trabajadores no cualificados</t>
@@ -104,991 +104,1027 @@
     <t>31,72%</t>
   </si>
   <si>
+    <t>24,17%</t>
+  </si>
+  <si>
+    <t>41,18%</t>
+  </si>
+  <si>
+    <t>40,49%</t>
+  </si>
+  <si>
+    <t>31,04%</t>
+  </si>
+  <si>
+    <t>50,44%</t>
+  </si>
+  <si>
+    <t>36,09%</t>
+  </si>
+  <si>
+    <t>29,31%</t>
+  </si>
+  <si>
+    <t>42,58%</t>
+  </si>
+  <si>
+    <t>Trabajadores manuales semicualificados</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>Trabajadores manuales cualificados</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>Empleados de tipo adtvo y prof de apoyo gestión adtva y fina</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>Direct.empresas con menos 10 asal. Prof. asociadas a una tit</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>Direct AAPP y empresas 10 o más asal.Prof. asociadas a titul</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>47,92%</t>
+  </si>
+  <si>
+    <t>43,47%</t>
+  </si>
+  <si>
+    <t>52,1%</t>
+  </si>
+  <si>
+    <t>39,27%</t>
+  </si>
+  <si>
+    <t>35,11%</t>
+  </si>
+  <si>
+    <t>43,6%</t>
+  </si>
+  <si>
+    <t>43,61%</t>
+  </si>
+  <si>
+    <t>40,81%</t>
+  </si>
+  <si>
+    <t>46,66%</t>
+  </si>
+  <si>
+    <t>37,28%</t>
+  </si>
+  <si>
+    <t>32,83%</t>
+  </si>
+  <si>
+    <t>41,54%</t>
+  </si>
+  <si>
+    <t>42,68%</t>
+  </si>
+  <si>
+    <t>38,52%</t>
+  </si>
+  <si>
+    <t>46,99%</t>
+  </si>
+  <si>
+    <t>39,97%</t>
+  </si>
+  <si>
+    <t>37,03%</t>
+  </si>
+  <si>
+    <t>42,84%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>44,06%</t>
+  </si>
+  <si>
+    <t>40,59%</t>
+  </si>
+  <si>
+    <t>47,29%</t>
+  </si>
+  <si>
+    <t>42,74%</t>
+  </si>
+  <si>
+    <t>39,55%</t>
+  </si>
+  <si>
+    <t>45,98%</t>
+  </si>
+  <si>
+    <t>43,4%</t>
+  </si>
+  <si>
+    <t>41,15%</t>
+  </si>
+  <si>
+    <t>45,76%</t>
+  </si>
+  <si>
+    <t>37,8%</t>
+  </si>
+  <si>
+    <t>34,62%</t>
+  </si>
+  <si>
+    <t>41,13%</t>
+  </si>
+  <si>
+    <t>37,7%</t>
+  </si>
+  <si>
+    <t>34,58%</t>
+  </si>
+  <si>
+    <t>41,0%</t>
+  </si>
+  <si>
+    <t>37,75%</t>
+  </si>
+  <si>
+    <t>35,6%</t>
+  </si>
+  <si>
+    <t>39,88%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>48,19%</t>
+  </si>
+  <si>
+    <t>43,93%</t>
+  </si>
+  <si>
+    <t>52,09%</t>
+  </si>
+  <si>
+    <t>50,45%</t>
+  </si>
+  <si>
+    <t>46,39%</t>
+  </si>
+  <si>
+    <t>54,3%</t>
+  </si>
+  <si>
+    <t>49,35%</t>
+  </si>
+  <si>
+    <t>46,34%</t>
+  </si>
+  <si>
+    <t>52,0%</t>
+  </si>
+  <si>
+    <t>31,05%</t>
+  </si>
+  <si>
+    <t>27,62%</t>
+  </si>
+  <si>
+    <t>34,86%</t>
+  </si>
+  <si>
+    <t>30,11%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>34,48%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>27,97%</t>
+  </si>
+  <si>
+    <t>33,3%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>52,71%</t>
+  </si>
+  <si>
+    <t>49,36%</t>
+  </si>
+  <si>
+    <t>56,16%</t>
+  </si>
+  <si>
+    <t>49,83%</t>
+  </si>
+  <si>
+    <t>46,51%</t>
+  </si>
+  <si>
+    <t>53,05%</t>
+  </si>
+  <si>
+    <t>51,19%</t>
+  </si>
+  <si>
+    <t>48,86%</t>
+  </si>
+  <si>
+    <t>53,43%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>22,17%</t>
+  </si>
+  <si>
+    <t>27,78%</t>
+  </si>
+  <si>
     <t>23,68%</t>
   </si>
   <si>
-    <t>41,15%</t>
-  </si>
-  <si>
-    <t>40,49%</t>
-  </si>
-  <si>
-    <t>31,12%</t>
-  </si>
-  <si>
-    <t>49,82%</t>
-  </si>
-  <si>
-    <t>36,09%</t>
-  </si>
-  <si>
-    <t>29,51%</t>
-  </si>
-  <si>
-    <t>43,15%</t>
-  </si>
-  <si>
-    <t>Trabajadores manuales semicualificados</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>Trabajadores manuales cualificados</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>Empleados de tipo adtvo y prof de apoyo gestión adtva y fina</t>
-  </si>
-  <si>
-    <t>2,03%</t>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>48,3%</t>
+  </si>
+  <si>
+    <t>46,55%</t>
+  </si>
+  <si>
+    <t>50,08%</t>
+  </si>
+  <si>
+    <t>46,01%</t>
+  </si>
+  <si>
+    <t>44,29%</t>
+  </si>
+  <si>
+    <t>47,88%</t>
+  </si>
+  <si>
+    <t>47,13%</t>
+  </si>
+  <si>
+    <t>45,79%</t>
+  </si>
+  <si>
+    <t>48,44%</t>
+  </si>
+  <si>
+    <t>31,85%</t>
+  </si>
+  <si>
+    <t>30,24%</t>
+  </si>
+  <si>
+    <t>33,66%</t>
+  </si>
+  <si>
+    <t>33,15%</t>
+  </si>
+  <si>
+    <t>31,4%</t>
+  </si>
+  <si>
+    <t>34,74%</t>
+  </si>
+  <si>
+    <t>32,51%</t>
+  </si>
+  <si>
+    <t>31,37%</t>
+  </si>
+  <si>
+    <t>33,7%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
   </si>
   <si>
     <t>0,64%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>Direct.empresas con menos 10 asal. Prof. asociadas a una tit</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>Direct AAPP y empresas 10 o más asal.Prof. asociadas a titul</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>47,92%</t>
-  </si>
-  <si>
-    <t>43,69%</t>
-  </si>
-  <si>
-    <t>51,87%</t>
-  </si>
-  <si>
-    <t>39,27%</t>
-  </si>
-  <si>
-    <t>35,37%</t>
-  </si>
-  <si>
-    <t>43,49%</t>
-  </si>
-  <si>
-    <t>43,61%</t>
-  </si>
-  <si>
-    <t>40,76%</t>
-  </si>
-  <si>
-    <t>46,45%</t>
-  </si>
-  <si>
-    <t>37,28%</t>
-  </si>
-  <si>
-    <t>33,32%</t>
-  </si>
-  <si>
-    <t>41,49%</t>
-  </si>
-  <si>
-    <t>42,68%</t>
-  </si>
-  <si>
-    <t>38,64%</t>
-  </si>
-  <si>
-    <t>47,24%</t>
-  </si>
-  <si>
-    <t>39,97%</t>
-  </si>
-  <si>
-    <t>37,02%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>44,06%</t>
-  </si>
-  <si>
-    <t>40,61%</t>
-  </si>
-  <si>
-    <t>47,63%</t>
-  </si>
-  <si>
-    <t>42,74%</t>
-  </si>
-  <si>
-    <t>45,96%</t>
-  </si>
-  <si>
-    <t>43,4%</t>
-  </si>
-  <si>
-    <t>40,97%</t>
-  </si>
-  <si>
-    <t>45,7%</t>
-  </si>
-  <si>
-    <t>37,8%</t>
-  </si>
-  <si>
-    <t>34,57%</t>
-  </si>
-  <si>
-    <t>41,18%</t>
-  </si>
-  <si>
-    <t>37,7%</t>
-  </si>
-  <si>
-    <t>34,58%</t>
-  </si>
-  <si>
-    <t>40,95%</t>
-  </si>
-  <si>
-    <t>37,75%</t>
-  </si>
-  <si>
-    <t>35,49%</t>
-  </si>
-  <si>
-    <t>40,02%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>48,19%</t>
-  </si>
-  <si>
-    <t>44,32%</t>
-  </si>
-  <si>
-    <t>52,24%</t>
-  </si>
-  <si>
-    <t>50,45%</t>
-  </si>
-  <si>
-    <t>46,6%</t>
-  </si>
-  <si>
-    <t>54,26%</t>
-  </si>
-  <si>
-    <t>49,35%</t>
-  </si>
-  <si>
-    <t>46,53%</t>
-  </si>
-  <si>
-    <t>52,36%</t>
-  </si>
-  <si>
-    <t>31,05%</t>
-  </si>
-  <si>
-    <t>27,57%</t>
-  </si>
-  <si>
-    <t>35,16%</t>
-  </si>
-  <si>
-    <t>30,11%</t>
-  </si>
-  <si>
-    <t>27,05%</t>
-  </si>
-  <si>
-    <t>34,03%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>28,2%</t>
-  </si>
-  <si>
-    <t>33,14%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>52,71%</t>
-  </si>
-  <si>
-    <t>49,17%</t>
-  </si>
-  <si>
-    <t>55,99%</t>
-  </si>
-  <si>
-    <t>49,83%</t>
-  </si>
-  <si>
-    <t>46,77%</t>
-  </si>
-  <si>
-    <t>52,93%</t>
-  </si>
-  <si>
-    <t>51,19%</t>
-  </si>
-  <si>
-    <t>48,76%</t>
-  </si>
-  <si>
-    <t>53,3%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>27,66%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>25,61%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>48,3%</t>
-  </si>
-  <si>
-    <t>46,52%</t>
-  </si>
-  <si>
-    <t>50,17%</t>
-  </si>
-  <si>
-    <t>46,01%</t>
-  </si>
-  <si>
-    <t>44,33%</t>
-  </si>
-  <si>
-    <t>47,8%</t>
-  </si>
-  <si>
-    <t>47,13%</t>
-  </si>
-  <si>
-    <t>48,55%</t>
-  </si>
-  <si>
-    <t>31,85%</t>
-  </si>
-  <si>
-    <t>30,23%</t>
-  </si>
-  <si>
-    <t>33,64%</t>
-  </si>
-  <si>
-    <t>33,15%</t>
-  </si>
-  <si>
-    <t>31,66%</t>
-  </si>
-  <si>
-    <t>35,04%</t>
-  </si>
-  <si>
-    <t>32,51%</t>
-  </si>
-  <si>
-    <t>31,3%</t>
-  </si>
-  <si>
-    <t>33,63%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1503,7 +1539,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CB49936-FEAD-4FDE-BB7C-A201EF178457}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41309A23-34C5-4552-A33A-4478DA991947}">
   <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2298,7 +2334,7 @@
         <v>118</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="H17" s="7">
         <v>4</v>
@@ -2307,13 +2343,13 @@
         <v>5349</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M17" s="7">
         <v>9</v>
@@ -2322,13 +2358,13 @@
         <v>10426</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2343,13 +2379,13 @@
         <v>2029</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>35</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H18" s="7">
         <v>2</v>
@@ -2358,13 +2394,13 @@
         <v>2002</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>35</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M18" s="7">
         <v>4</v>
@@ -2373,13 +2409,13 @@
         <v>4030</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2435,7 +2471,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -2447,13 +2483,13 @@
         <v>426852</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H20" s="7">
         <v>386</v>
@@ -2462,13 +2498,13 @@
         <v>417858</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>75</v>
+        <v>135</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="M20" s="7">
         <v>778</v>
@@ -2477,13 +2513,13 @@
         <v>844710</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2498,13 +2534,13 @@
         <v>366207</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H21" s="7">
         <v>335</v>
@@ -2513,13 +2549,13 @@
         <v>368577</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="M21" s="7">
         <v>672</v>
@@ -2528,13 +2564,13 @@
         <v>734785</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2549,13 +2585,13 @@
         <v>46863</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H22" s="7">
         <v>60</v>
@@ -2564,13 +2600,13 @@
         <v>66159</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="M22" s="7">
         <v>105</v>
@@ -2579,13 +2615,13 @@
         <v>113022</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2600,13 +2636,13 @@
         <v>65730</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="H23" s="7">
         <v>64</v>
@@ -2615,13 +2651,13 @@
         <v>73606</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="M23" s="7">
         <v>126</v>
@@ -2630,13 +2666,13 @@
         <v>139335</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2651,13 +2687,13 @@
         <v>43028</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="H24" s="7">
         <v>36</v>
@@ -2666,13 +2702,13 @@
         <v>38997</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="M24" s="7">
         <v>76</v>
@@ -2681,13 +2717,13 @@
         <v>82024</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2702,13 +2738,13 @@
         <v>15076</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>176</v>
+        <v>45</v>
       </c>
       <c r="H25" s="7">
         <v>10</v>
@@ -2717,13 +2753,13 @@
         <v>11459</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M25" s="7">
         <v>22</v>
@@ -2732,13 +2768,13 @@
         <v>26536</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2753,13 +2789,13 @@
         <v>5121</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -2768,13 +2804,13 @@
         <v>972</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>35</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="M26" s="7">
         <v>5</v>
@@ -2783,13 +2819,13 @@
         <v>6094</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="P26" s="7" t="s">
-        <v>185</v>
-      </c>
       <c r="Q26" s="7" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2845,7 +2881,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2857,13 +2893,13 @@
         <v>334975</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H28" s="7">
         <v>334</v>
@@ -2872,13 +2908,13 @@
         <v>367289</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M28" s="7">
         <v>631</v>
@@ -2887,13 +2923,13 @@
         <v>702264</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2908,13 +2944,13 @@
         <v>215822</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H29" s="7">
         <v>201</v>
@@ -2923,13 +2959,13 @@
         <v>219210</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M29" s="7">
         <v>402</v>
@@ -2938,13 +2974,13 @@
         <v>435033</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2959,13 +2995,13 @@
         <v>30036</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>90</v>
+        <v>211</v>
       </c>
       <c r="H30" s="7">
         <v>30</v>
@@ -2974,13 +3010,13 @@
         <v>34267</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>210</v>
+        <v>48</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M30" s="7">
         <v>60</v>
@@ -2989,10 +3025,10 @@
         <v>64303</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>214</v>
+        <v>174</v>
       </c>
       <c r="Q30" s="7" t="s">
         <v>215</v>
@@ -3013,10 +3049,10 @@
         <v>216</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>173</v>
+        <v>217</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H31" s="7">
         <v>54</v>
@@ -3025,13 +3061,13 @@
         <v>60521</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M31" s="7">
         <v>100</v>
@@ -3040,13 +3076,13 @@
         <v>111630</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3061,13 +3097,13 @@
         <v>43626</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="H32" s="7">
         <v>33</v>
@@ -3076,13 +3112,13 @@
         <v>36977</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="M32" s="7">
         <v>74</v>
@@ -3091,10 +3127,10 @@
         <v>80603</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>213</v>
+        <v>232</v>
       </c>
       <c r="Q32" s="7" t="s">
         <v>230</v>
@@ -3112,13 +3148,13 @@
         <v>18172</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="H33" s="7">
         <v>7</v>
@@ -3127,13 +3163,13 @@
         <v>8809</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>127</v>
+        <v>236</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>231</v>
+        <v>37</v>
       </c>
       <c r="M33" s="7">
         <v>22</v>
@@ -3142,13 +3178,13 @@
         <v>26981</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>58</v>
+        <v>238</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3163,13 +3199,13 @@
         <v>1314</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>35</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="H34" s="7">
         <v>1</v>
@@ -3178,13 +3214,13 @@
         <v>996</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>35</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="M34" s="7">
         <v>2</v>
@@ -3193,13 +3229,13 @@
         <v>2310</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="P34" s="7" t="s">
         <v>35</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>242</v>
+        <v>179</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3255,7 +3291,7 @@
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>10</v>
@@ -3267,13 +3303,13 @@
         <v>472898</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="H36" s="7">
         <v>477</v>
@@ -3282,13 +3318,13 @@
         <v>497648</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="M36" s="7">
         <v>927</v>
@@ -3297,13 +3333,13 @@
         <v>970546</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3318,13 +3354,13 @@
         <v>202616</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="H37" s="7">
         <v>232</v>
@@ -3333,13 +3369,13 @@
         <v>246371</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="M37" s="7">
         <v>431</v>
@@ -3348,13 +3384,13 @@
         <v>448987</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>22</v>
+        <v>262</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3369,13 +3405,13 @@
         <v>48969</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>170</v>
+        <v>265</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="H38" s="7">
         <v>64</v>
@@ -3384,13 +3420,13 @@
         <v>66722</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="M38" s="7">
         <v>112</v>
@@ -3399,13 +3435,13 @@
         <v>115691</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3420,13 +3456,13 @@
         <v>95979</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="H39" s="7">
         <v>96</v>
@@ -3435,13 +3471,13 @@
         <v>100797</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="M39" s="7">
         <v>188</v>
@@ -3450,13 +3486,13 @@
         <v>196776</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3471,13 +3507,13 @@
         <v>47553</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>173</v>
+        <v>283</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="H40" s="7">
         <v>52</v>
@@ -3486,13 +3522,13 @@
         <v>55049</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>116</v>
+        <v>287</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="M40" s="7">
         <v>97</v>
@@ -3501,13 +3537,13 @@
         <v>102602</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3522,13 +3558,13 @@
         <v>20511</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>126</v>
+        <v>293</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="H41" s="7">
         <v>23</v>
@@ -3537,13 +3573,13 @@
         <v>22769</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="M41" s="7">
         <v>41</v>
@@ -3552,13 +3588,13 @@
         <v>43280</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3573,13 +3609,13 @@
         <v>8627</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>293</v>
+        <v>188</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="H42" s="7">
         <v>9</v>
@@ -3588,13 +3624,13 @@
         <v>9384</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="M42" s="7">
         <v>18</v>
@@ -3606,10 +3642,10 @@
         <v>34</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3677,13 +3713,13 @@
         <v>1567742</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="H44" s="7">
         <v>1454</v>
@@ -3692,28 +3728,28 @@
         <v>1557630</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="M44" s="7">
         <v>2914</v>
       </c>
       <c r="N44" s="7">
-        <v>3125373</v>
+        <v>3125372</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>134</v>
+        <v>313</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3728,13 +3764,13 @@
         <v>1033703</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="H45" s="7">
         <v>1034</v>
@@ -3743,28 +3779,28 @@
         <v>1122318</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="M45" s="7">
         <v>2010</v>
       </c>
       <c r="N45" s="7">
-        <v>2156022</v>
+        <v>2156021</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -3779,13 +3815,13 @@
         <v>165266</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="H46" s="7">
         <v>193</v>
@@ -3794,13 +3830,13 @@
         <v>206631</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>319</v>
+        <v>283</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>279</v>
+        <v>327</v>
       </c>
       <c r="M46" s="7">
         <v>354</v>
@@ -3809,13 +3845,13 @@
         <v>371896</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3830,13 +3866,13 @@
         <v>247754</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>212</v>
+        <v>332</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="H47" s="7">
         <v>259</v>
@@ -3845,13 +3881,13 @@
         <v>282408</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>59</v>
+        <v>335</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="M47" s="7">
         <v>488</v>
@@ -3860,13 +3896,13 @@
         <v>530162</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>59</v>
+        <v>338</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>328</v>
+        <v>339</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3881,13 +3917,13 @@
         <v>154839</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>329</v>
+        <v>340</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>330</v>
+        <v>341</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>331</v>
+        <v>342</v>
       </c>
       <c r="H48" s="7">
         <v>143</v>
@@ -3896,13 +3932,13 @@
         <v>154611</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>332</v>
+        <v>343</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>333</v>
+        <v>344</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="M48" s="7">
         <v>289</v>
@@ -3911,13 +3947,13 @@
         <v>309450</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>335</v>
+        <v>346</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>336</v>
+        <v>347</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>103</v>
+        <v>348</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -3932,13 +3968,13 @@
         <v>59589</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>339</v>
+        <v>37</v>
       </c>
       <c r="H49" s="7">
         <v>44</v>
@@ -3947,13 +3983,13 @@
         <v>48387</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>340</v>
+        <v>351</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>341</v>
+        <v>352</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>342</v>
+        <v>109</v>
       </c>
       <c r="M49" s="7">
         <v>95</v>
@@ -3962,13 +3998,13 @@
         <v>107976</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -3983,13 +4019,13 @@
         <v>17091</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>120</v>
+        <v>356</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>175</v>
+        <v>357</v>
       </c>
       <c r="H50" s="7">
         <v>13</v>
@@ -3998,13 +4034,13 @@
         <v>13354</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>347</v>
+        <v>359</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>348</v>
+        <v>360</v>
       </c>
       <c r="M50" s="7">
         <v>29</v>
@@ -4013,13 +4049,13 @@
         <v>30445</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>120</v>
+        <v>189</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -4061,7 +4097,7 @@
         <v>6179</v>
       </c>
       <c r="N51" s="7">
-        <v>6631323</v>
+        <v>6631322</v>
       </c>
       <c r="O51" s="7" t="s">
         <v>70</v>
@@ -4075,7 +4111,7 @@
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>351</v>
+        <v>363</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P76_M_2012-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P76_M_2012-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3EC21FCE-7C7F-471F-A6BD-478111E2203B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C4C8EF6F-481F-4EA4-8B87-7A3A9FFA959C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{93A89E2D-C3E9-4E65-A59C-09F1467CCA76}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2305D1C8-B16B-4E90-8724-2F221907A4D0}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="355">
   <si>
     <t>Población según era la situación laboral de su madre cuando tenía 12 años en 2012 (Tasa respuesta: 94,96%)</t>
   </si>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>No trabajaba</t>
@@ -74,28 +74,28 @@
     <t>52,17%</t>
   </si>
   <si>
-    <t>41,4%</t>
-  </si>
-  <si>
-    <t>61,0%</t>
+    <t>42,82%</t>
+  </si>
+  <si>
+    <t>61,72%</t>
   </si>
   <si>
     <t>45,92%</t>
   </si>
   <si>
-    <t>36,06%</t>
-  </si>
-  <si>
-    <t>56,23%</t>
+    <t>35,63%</t>
+  </si>
+  <si>
+    <t>56,87%</t>
   </si>
   <si>
     <t>49,06%</t>
   </si>
   <si>
-    <t>41,91%</t>
-  </si>
-  <si>
-    <t>55,77%</t>
+    <t>42,33%</t>
+  </si>
+  <si>
+    <t>56,21%</t>
   </si>
   <si>
     <t>Trabajadores no cualificados</t>
@@ -104,28 +104,28 @@
     <t>31,72%</t>
   </si>
   <si>
-    <t>24,17%</t>
-  </si>
-  <si>
-    <t>41,18%</t>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>40,37%</t>
   </si>
   <si>
     <t>40,49%</t>
   </si>
   <si>
-    <t>31,04%</t>
-  </si>
-  <si>
-    <t>50,44%</t>
+    <t>30,86%</t>
+  </si>
+  <si>
+    <t>50,78%</t>
   </si>
   <si>
     <t>36,09%</t>
   </si>
   <si>
-    <t>29,31%</t>
-  </si>
-  <si>
-    <t>42,58%</t>
+    <t>29,35%</t>
+  </si>
+  <si>
+    <t>42,29%</t>
   </si>
   <si>
     <t>Trabajadores manuales semicualificados</t>
@@ -134,10 +134,10 @@
     <t>3,85%</t>
   </si>
   <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
   </si>
   <si>
     <t>0,95%</t>
@@ -146,7 +146,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>4,93%</t>
+    <t>5,29%</t>
   </si>
   <si>
     <t>2,41%</t>
@@ -155,7 +155,7 @@
     <t>0,84%</t>
   </si>
   <si>
-    <t>6,14%</t>
+    <t>5,23%</t>
   </si>
   <si>
     <t>Trabajadores manuales cualificados</t>
@@ -164,967 +164,940 @@
     <t>9,57%</t>
   </si>
   <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
   </si>
   <si>
     <t>6,51%</t>
   </si>
   <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
   </si>
   <si>
     <t>8,05%</t>
   </si>
   <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>Empleados de tipo adtvo y prof de apoyo gestión adtva y fina</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>Direct.empresas con menos 10 asal. Prof. asociadas a una tit</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>Direct AAPP y empresas 10 o más asal.Prof. asociadas a titul</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>47,92%</t>
+  </si>
+  <si>
+    <t>43,44%</t>
+  </si>
+  <si>
+    <t>51,83%</t>
+  </si>
+  <si>
+    <t>39,27%</t>
+  </si>
+  <si>
+    <t>35,34%</t>
+  </si>
+  <si>
+    <t>43,77%</t>
+  </si>
+  <si>
+    <t>43,61%</t>
+  </si>
+  <si>
+    <t>40,61%</t>
+  </si>
+  <si>
+    <t>46,67%</t>
+  </si>
+  <si>
+    <t>37,28%</t>
+  </si>
+  <si>
+    <t>33,21%</t>
+  </si>
+  <si>
+    <t>41,22%</t>
+  </si>
+  <si>
+    <t>42,68%</t>
+  </si>
+  <si>
+    <t>38,42%</t>
+  </si>
+  <si>
+    <t>46,98%</t>
+  </si>
+  <si>
+    <t>39,97%</t>
+  </si>
+  <si>
+    <t>36,87%</t>
+  </si>
+  <si>
+    <t>42,86%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>44,06%</t>
+  </si>
+  <si>
+    <t>40,66%</t>
+  </si>
+  <si>
+    <t>47,38%</t>
+  </si>
+  <si>
+    <t>42,74%</t>
+  </si>
+  <si>
+    <t>39,34%</t>
+  </si>
+  <si>
+    <t>46,24%</t>
+  </si>
+  <si>
+    <t>43,4%</t>
+  </si>
+  <si>
+    <t>41,06%</t>
+  </si>
+  <si>
+    <t>45,76%</t>
+  </si>
+  <si>
+    <t>37,8%</t>
+  </si>
+  <si>
+    <t>34,78%</t>
+  </si>
+  <si>
+    <t>41,04%</t>
+  </si>
+  <si>
+    <t>37,7%</t>
+  </si>
+  <si>
+    <t>34,67%</t>
+  </si>
+  <si>
+    <t>41,14%</t>
+  </si>
+  <si>
+    <t>37,75%</t>
+  </si>
+  <si>
+    <t>35,52%</t>
+  </si>
+  <si>
+    <t>40,0%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>48,19%</t>
+  </si>
+  <si>
+    <t>44,09%</t>
+  </si>
+  <si>
+    <t>52,29%</t>
+  </si>
+  <si>
+    <t>50,45%</t>
+  </si>
+  <si>
+    <t>46,48%</t>
+  </si>
+  <si>
+    <t>54,58%</t>
+  </si>
+  <si>
+    <t>49,35%</t>
+  </si>
+  <si>
+    <t>46,46%</t>
+  </si>
+  <si>
+    <t>51,94%</t>
+  </si>
+  <si>
+    <t>31,05%</t>
+  </si>
+  <si>
+    <t>27,38%</t>
+  </si>
+  <si>
+    <t>35,07%</t>
+  </si>
+  <si>
+    <t>30,11%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
+  </si>
+  <si>
+    <t>33,76%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>28,2%</t>
+  </si>
+  <si>
+    <t>33,42%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
     <t>4,71%</t>
   </si>
   <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>Empleados de tipo adtvo y prof de apoyo gestión adtva y fina</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>Direct.empresas con menos 10 asal. Prof. asociadas a una tit</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>Direct AAPP y empresas 10 o más asal.Prof. asociadas a titul</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>47,92%</t>
-  </si>
-  <si>
-    <t>43,47%</t>
-  </si>
-  <si>
-    <t>52,1%</t>
-  </si>
-  <si>
-    <t>39,27%</t>
-  </si>
-  <si>
-    <t>35,11%</t>
-  </si>
-  <si>
-    <t>43,6%</t>
-  </si>
-  <si>
-    <t>43,61%</t>
-  </si>
-  <si>
-    <t>40,81%</t>
-  </si>
-  <si>
-    <t>46,66%</t>
-  </si>
-  <si>
-    <t>37,28%</t>
-  </si>
-  <si>
-    <t>32,83%</t>
-  </si>
-  <si>
-    <t>41,54%</t>
-  </si>
-  <si>
-    <t>42,68%</t>
-  </si>
-  <si>
-    <t>38,52%</t>
-  </si>
-  <si>
-    <t>46,99%</t>
-  </si>
-  <si>
-    <t>39,97%</t>
-  </si>
-  <si>
-    <t>37,03%</t>
-  </si>
-  <si>
-    <t>42,84%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
   </si>
   <si>
     <t>4,29%</t>
   </si>
   <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>52,71%</t>
+  </si>
+  <si>
+    <t>49,36%</t>
+  </si>
+  <si>
+    <t>56,13%</t>
+  </si>
+  <si>
+    <t>49,83%</t>
+  </si>
+  <si>
+    <t>46,75%</t>
+  </si>
+  <si>
+    <t>53,33%</t>
+  </si>
+  <si>
+    <t>51,19%</t>
+  </si>
+  <si>
+    <t>48,86%</t>
+  </si>
+  <si>
+    <t>53,64%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>23,68%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>25,73%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>48,3%</t>
+  </si>
+  <si>
+    <t>46,55%</t>
+  </si>
+  <si>
+    <t>50,2%</t>
+  </si>
+  <si>
+    <t>46,01%</t>
+  </si>
+  <si>
+    <t>44,29%</t>
+  </si>
+  <si>
+    <t>47,71%</t>
+  </si>
+  <si>
+    <t>47,13%</t>
+  </si>
+  <si>
+    <t>45,93%</t>
+  </si>
+  <si>
+    <t>48,42%</t>
+  </si>
+  <si>
+    <t>31,85%</t>
+  </si>
+  <si>
+    <t>33,41%</t>
+  </si>
+  <si>
+    <t>33,15%</t>
+  </si>
+  <si>
+    <t>31,52%</t>
+  </si>
+  <si>
+    <t>34,8%</t>
+  </si>
+  <si>
+    <t>32,51%</t>
+  </si>
+  <si>
+    <t>31,28%</t>
+  </si>
+  <si>
+    <t>33,69%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
   </si>
   <si>
     <t>5,01%</t>
   </si>
   <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>44,06%</t>
-  </si>
-  <si>
-    <t>40,59%</t>
-  </si>
-  <si>
-    <t>47,29%</t>
-  </si>
-  <si>
-    <t>42,74%</t>
-  </si>
-  <si>
-    <t>39,55%</t>
-  </si>
-  <si>
-    <t>45,98%</t>
-  </si>
-  <si>
-    <t>43,4%</t>
-  </si>
-  <si>
-    <t>41,15%</t>
-  </si>
-  <si>
-    <t>45,76%</t>
-  </si>
-  <si>
-    <t>37,8%</t>
-  </si>
-  <si>
-    <t>34,62%</t>
-  </si>
-  <si>
-    <t>41,13%</t>
-  </si>
-  <si>
-    <t>37,7%</t>
-  </si>
-  <si>
-    <t>34,58%</t>
-  </si>
-  <si>
-    <t>41,0%</t>
-  </si>
-  <si>
-    <t>37,75%</t>
-  </si>
-  <si>
-    <t>35,6%</t>
-  </si>
-  <si>
-    <t>39,88%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>48,19%</t>
-  </si>
-  <si>
-    <t>43,93%</t>
-  </si>
-  <si>
-    <t>52,09%</t>
-  </si>
-  <si>
-    <t>50,45%</t>
-  </si>
-  <si>
-    <t>46,39%</t>
-  </si>
-  <si>
-    <t>54,3%</t>
-  </si>
-  <si>
-    <t>49,35%</t>
-  </si>
-  <si>
-    <t>46,34%</t>
-  </si>
-  <si>
-    <t>52,0%</t>
-  </si>
-  <si>
-    <t>31,05%</t>
-  </si>
-  <si>
-    <t>27,62%</t>
-  </si>
-  <si>
-    <t>34,86%</t>
-  </si>
-  <si>
-    <t>30,11%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>34,48%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>27,97%</t>
-  </si>
-  <si>
-    <t>33,3%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>52,71%</t>
-  </si>
-  <si>
-    <t>49,36%</t>
-  </si>
-  <si>
-    <t>56,16%</t>
-  </si>
-  <si>
-    <t>49,83%</t>
-  </si>
-  <si>
-    <t>46,51%</t>
-  </si>
-  <si>
-    <t>53,05%</t>
-  </si>
-  <si>
-    <t>51,19%</t>
-  </si>
-  <si>
-    <t>48,86%</t>
-  </si>
-  <si>
-    <t>53,43%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>22,17%</t>
-  </si>
-  <si>
-    <t>27,78%</t>
-  </si>
-  <si>
-    <t>23,68%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
   </si>
   <si>
     <t>4,13%</t>
   </si>
   <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>48,3%</t>
-  </si>
-  <si>
-    <t>46,55%</t>
-  </si>
-  <si>
-    <t>50,08%</t>
-  </si>
-  <si>
-    <t>46,01%</t>
-  </si>
-  <si>
-    <t>44,29%</t>
-  </si>
-  <si>
-    <t>47,88%</t>
-  </si>
-  <si>
-    <t>47,13%</t>
-  </si>
-  <si>
-    <t>45,79%</t>
-  </si>
-  <si>
-    <t>48,44%</t>
-  </si>
-  <si>
-    <t>31,85%</t>
-  </si>
-  <si>
-    <t>30,24%</t>
-  </si>
-  <si>
-    <t>33,66%</t>
-  </si>
-  <si>
-    <t>33,15%</t>
-  </si>
-  <si>
-    <t>31,4%</t>
-  </si>
-  <si>
-    <t>34,74%</t>
-  </si>
-  <si>
-    <t>32,51%</t>
-  </si>
-  <si>
-    <t>31,37%</t>
-  </si>
-  <si>
-    <t>33,7%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
+    <t>5,2%</t>
   </si>
   <si>
     <t>1,84%</t>
   </si>
   <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
   </si>
   <si>
     <t>1,63%</t>
   </si>
   <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
+    <t>1,32%</t>
   </si>
   <si>
     <t>0,32%</t>
   </si>
   <si>
-    <t>0,86%</t>
+    <t>0,83%</t>
   </si>
   <si>
     <t>0,39%</t>
   </si>
   <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
+    <t>0,2%</t>
   </si>
   <si>
     <t>0,46%</t>
   </si>
   <si>
-    <t>0,64%</t>
+    <t>0,66%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1539,7 +1512,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41309A23-34C5-4552-A33A-4478DA991947}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59EA9EFA-6038-4407-A3E5-864D9BC17151}">
   <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1873,7 +1846,7 @@
         <v>52</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="H8" s="7">
         <v>6</v>
@@ -1882,13 +1855,13 @@
         <v>6852</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M8" s="7">
         <v>9</v>
@@ -1897,19 +1870,19 @@
         <v>9144</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C9" s="7">
         <v>1</v>
@@ -1918,13 +1891,13 @@
         <v>753</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>35</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -1936,10 +1909,10 @@
         <v>35</v>
       </c>
       <c r="K9" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="M9" s="7">
         <v>1</v>
@@ -1948,19 +1921,19 @@
         <v>753</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="P9" s="7" t="s">
         <v>35</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C10" s="7">
         <v>0</v>
@@ -1972,10 +1945,10 @@
         <v>35</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -1987,10 +1960,10 @@
         <v>35</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -2002,10 +1975,10 @@
         <v>35</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2020,13 +1993,13 @@
         <v>113094</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H11" s="7">
         <v>99</v>
@@ -2035,13 +2008,13 @@
         <v>111905</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M11" s="7">
         <v>218</v>
@@ -2050,18 +2023,18 @@
         <v>224999</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -2073,13 +2046,13 @@
         <v>274017</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="H12" s="7">
         <v>213</v>
@@ -2088,13 +2061,13 @@
         <v>223444</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="M12" s="7">
         <v>472</v>
@@ -2103,13 +2076,13 @@
         <v>497462</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2124,13 +2097,13 @@
         <v>213179</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="H13" s="7">
         <v>225</v>
@@ -2139,13 +2112,13 @@
         <v>242845</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="M13" s="7">
         <v>424</v>
@@ -2154,13 +2127,13 @@
         <v>456025</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2175,13 +2148,13 @@
         <v>35047</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="H14" s="7">
         <v>38</v>
@@ -2190,13 +2163,13 @@
         <v>38420</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="M14" s="7">
         <v>72</v>
@@ -2205,13 +2178,13 @@
         <v>73467</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2226,13 +2199,13 @@
         <v>24115</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="H15" s="7">
         <v>38</v>
@@ -2241,13 +2214,13 @@
         <v>40200</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="M15" s="7">
         <v>58</v>
@@ -2256,13 +2229,13 @@
         <v>64316</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2277,13 +2250,13 @@
         <v>18342</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H16" s="7">
         <v>16</v>
@@ -2292,13 +2265,13 @@
         <v>16736</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M16" s="7">
         <v>33</v>
@@ -2307,19 +2280,19 @@
         <v>35078</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C17" s="7">
         <v>5</v>
@@ -2328,13 +2301,13 @@
         <v>5077</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="H17" s="7">
         <v>4</v>
@@ -2343,13 +2316,13 @@
         <v>5349</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="M17" s="7">
         <v>9</v>
@@ -2358,19 +2331,19 @@
         <v>10426</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C18" s="7">
         <v>2</v>
@@ -2379,13 +2352,13 @@
         <v>2029</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>35</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H18" s="7">
         <v>2</v>
@@ -2394,13 +2367,13 @@
         <v>2002</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>35</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="M18" s="7">
         <v>4</v>
@@ -2409,13 +2382,13 @@
         <v>4030</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="P18" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2430,13 +2403,13 @@
         <v>571806</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H19" s="7">
         <v>536</v>
@@ -2445,13 +2418,13 @@
         <v>568997</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M19" s="7">
         <v>1072</v>
@@ -2460,13 +2433,13 @@
         <v>1140803</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2585,13 +2558,13 @@
         <v>46863</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="H22" s="7">
         <v>60</v>
@@ -2600,13 +2573,13 @@
         <v>66159</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="M22" s="7">
         <v>105</v>
@@ -2615,13 +2588,13 @@
         <v>113022</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2636,13 +2609,13 @@
         <v>65730</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="H23" s="7">
         <v>64</v>
@@ -2651,13 +2624,13 @@
         <v>73606</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="M23" s="7">
         <v>126</v>
@@ -2666,13 +2639,13 @@
         <v>139335</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2687,13 +2660,13 @@
         <v>43028</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="H24" s="7">
         <v>36</v>
@@ -2702,13 +2675,13 @@
         <v>38997</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="M24" s="7">
         <v>76</v>
@@ -2717,19 +2690,19 @@
         <v>82024</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C25" s="7">
         <v>12</v>
@@ -2738,13 +2711,13 @@
         <v>15076</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="F25" s="7" t="s">
-        <v>177</v>
-      </c>
       <c r="G25" s="7" t="s">
-        <v>45</v>
+        <v>110</v>
       </c>
       <c r="H25" s="7">
         <v>10</v>
@@ -2753,13 +2726,13 @@
         <v>11459</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="M25" s="7">
         <v>22</v>
@@ -2768,19 +2741,19 @@
         <v>26536</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C26" s="7">
         <v>4</v>
@@ -2789,13 +2762,13 @@
         <v>5121</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -2804,13 +2777,13 @@
         <v>972</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>35</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="M26" s="7">
         <v>5</v>
@@ -2819,13 +2792,13 @@
         <v>6094</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2840,13 +2813,13 @@
         <v>968878</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H27" s="7">
         <v>892</v>
@@ -2855,13 +2828,13 @@
         <v>977628</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M27" s="7">
         <v>1784</v>
@@ -2870,18 +2843,18 @@
         <v>1946506</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2893,13 +2866,13 @@
         <v>334975</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="H28" s="7">
         <v>334</v>
@@ -2908,13 +2881,13 @@
         <v>367289</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="M28" s="7">
         <v>631</v>
@@ -2923,13 +2896,13 @@
         <v>702264</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2944,13 +2917,13 @@
         <v>215822</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="H29" s="7">
         <v>201</v>
@@ -2959,13 +2932,13 @@
         <v>219210</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="M29" s="7">
         <v>402</v>
@@ -2974,13 +2947,13 @@
         <v>435033</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2995,13 +2968,13 @@
         <v>30036</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="H30" s="7">
         <v>30</v>
@@ -3010,13 +2983,13 @@
         <v>34267</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>48</v>
+        <v>211</v>
       </c>
       <c r="K30" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>213</v>
       </c>
       <c r="M30" s="7">
         <v>60</v>
@@ -3025,10 +2998,10 @@
         <v>64303</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="Q30" s="7" t="s">
         <v>215</v>
@@ -3130,16 +3103,16 @@
         <v>231</v>
       </c>
       <c r="P32" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C33" s="7">
         <v>15</v>
@@ -3151,10 +3124,10 @@
         <v>233</v>
       </c>
       <c r="F33" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G33" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>235</v>
       </c>
       <c r="H33" s="7">
         <v>7</v>
@@ -3163,13 +3136,13 @@
         <v>8809</v>
       </c>
       <c r="J33" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="L33" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="M33" s="7">
         <v>22</v>
@@ -3178,19 +3151,19 @@
         <v>26981</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>239</v>
+        <v>177</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>240</v>
+        <v>110</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C34" s="7">
         <v>1</v>
@@ -3199,13 +3172,13 @@
         <v>1314</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>35</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H34" s="7">
         <v>1</v>
@@ -3214,13 +3187,13 @@
         <v>996</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>35</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="M34" s="7">
         <v>2</v>
@@ -3229,13 +3202,13 @@
         <v>2310</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="P34" s="7" t="s">
         <v>35</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>179</v>
+        <v>243</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3250,13 +3223,13 @@
         <v>695053</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H35" s="7">
         <v>660</v>
@@ -3265,13 +3238,13 @@
         <v>728070</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M35" s="7">
         <v>1291</v>
@@ -3280,18 +3253,18 @@
         <v>1423123</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>10</v>
@@ -3303,13 +3276,13 @@
         <v>472898</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>249</v>
       </c>
       <c r="H36" s="7">
         <v>477</v>
@@ -3318,13 +3291,13 @@
         <v>497648</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>252</v>
       </c>
       <c r="M36" s="7">
         <v>927</v>
@@ -3333,13 +3306,13 @@
         <v>970546</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3354,13 +3327,13 @@
         <v>202616</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>258</v>
       </c>
       <c r="H37" s="7">
         <v>232</v>
@@ -3369,13 +3342,13 @@
         <v>246371</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>261</v>
       </c>
       <c r="M37" s="7">
         <v>431</v>
@@ -3384,13 +3357,13 @@
         <v>448987</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3405,13 +3378,13 @@
         <v>48969</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="G38" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>267</v>
       </c>
       <c r="H38" s="7">
         <v>64</v>
@@ -3420,13 +3393,13 @@
         <v>66722</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>269</v>
+        <v>96</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="M38" s="7">
         <v>112</v>
@@ -3435,13 +3408,13 @@
         <v>115691</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3456,13 +3429,13 @@
         <v>95979</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="H39" s="7">
         <v>96</v>
@@ -3471,13 +3444,13 @@
         <v>100797</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="M39" s="7">
         <v>188</v>
@@ -3486,13 +3459,13 @@
         <v>196776</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3507,13 +3480,13 @@
         <v>47553</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="H40" s="7">
         <v>52</v>
@@ -3522,13 +3495,13 @@
         <v>55049</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>287</v>
+        <v>172</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>288</v>
+        <v>230</v>
       </c>
       <c r="M40" s="7">
         <v>97</v>
@@ -3537,19 +3510,19 @@
         <v>102602</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C41" s="7">
         <v>18</v>
@@ -3558,13 +3531,13 @@
         <v>20511</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="H41" s="7">
         <v>23</v>
@@ -3573,13 +3546,13 @@
         <v>22769</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="M41" s="7">
         <v>41</v>
@@ -3588,19 +3561,19 @@
         <v>43280</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C42" s="7">
         <v>9</v>
@@ -3609,13 +3582,13 @@
         <v>8627</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>300</v>
+        <v>239</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>188</v>
+        <v>243</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="H42" s="7">
         <v>9</v>
@@ -3624,13 +3597,13 @@
         <v>9384</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="M42" s="7">
         <v>18</v>
@@ -3642,10 +3615,10 @@
         <v>34</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3660,13 +3633,13 @@
         <v>897153</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H43" s="7">
         <v>953</v>
@@ -3675,13 +3648,13 @@
         <v>998739</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M43" s="7">
         <v>1814</v>
@@ -3690,13 +3663,13 @@
         <v>1895892</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3713,13 +3686,13 @@
         <v>1567742</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="H44" s="7">
         <v>1454</v>
@@ -3728,13 +3701,13 @@
         <v>1557630</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="M44" s="7">
         <v>2914</v>
@@ -3743,13 +3716,13 @@
         <v>3125372</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3764,13 +3737,13 @@
         <v>1033703</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>316</v>
+        <v>202</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="H45" s="7">
         <v>1034</v>
@@ -3779,13 +3752,13 @@
         <v>1122318</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="M45" s="7">
         <v>2010</v>
@@ -3794,13 +3767,13 @@
         <v>2156021</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -3815,13 +3788,13 @@
         <v>165266</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="H46" s="7">
         <v>193</v>
@@ -3830,13 +3803,13 @@
         <v>206631</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="M46" s="7">
         <v>354</v>
@@ -3845,13 +3818,13 @@
         <v>371896</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3866,13 +3839,13 @@
         <v>247754</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="H47" s="7">
         <v>259</v>
@@ -3881,13 +3854,13 @@
         <v>282408</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="M47" s="7">
         <v>488</v>
@@ -3896,13 +3869,13 @@
         <v>530162</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3917,13 +3890,13 @@
         <v>154839</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="H48" s="7">
         <v>143</v>
@@ -3932,13 +3905,13 @@
         <v>154611</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="M48" s="7">
         <v>289</v>
@@ -3947,19 +3920,19 @@
         <v>309450</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C49" s="7">
         <v>51</v>
@@ -3968,13 +3941,13 @@
         <v>59589</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>37</v>
+        <v>344</v>
       </c>
       <c r="H49" s="7">
         <v>44</v>
@@ -3983,13 +3956,13 @@
         <v>48387</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>351</v>
+        <v>299</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="M49" s="7">
         <v>95</v>
@@ -3998,19 +3971,19 @@
         <v>107976</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>355</v>
+        <v>108</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C50" s="7">
         <v>16</v>
@@ -4019,13 +3992,13 @@
         <v>17091</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="H50" s="7">
         <v>13</v>
@@ -4034,13 +4007,13 @@
         <v>13354</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>360</v>
+        <v>52</v>
       </c>
       <c r="M50" s="7">
         <v>29</v>
@@ -4049,13 +4022,13 @@
         <v>30445</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -4070,13 +4043,13 @@
         <v>3245984</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H51" s="7">
         <v>3140</v>
@@ -4085,13 +4058,13 @@
         <v>3385338</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M51" s="7">
         <v>6179</v>
@@ -4100,18 +4073,18 @@
         <v>6631322</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
     </row>
   </sheetData>
